--- a/Textbooks, projects/Applied Math/labs/lab_2/var_5/lab_2_var_5.xlsx
+++ b/Textbooks, projects/Applied Math/labs/lab_2/var_5/lab_2_var_5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA04AD8-0934-4BC7-9495-EB0876AA20E4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A902C02E-3B69-4A2B-AB68-E5826FE769A9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2355,7 +2355,7 @@
   <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Textbooks, projects/Applied Math/labs/lab_2/var_5/lab_2_var_5.xlsx
+++ b/Textbooks, projects/Applied Math/labs/lab_2/var_5/lab_2_var_5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A902C02E-3B69-4A2B-AB68-E5826FE769A9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F59BA1-5A4D-431D-AB80-1436DCA5A25D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2355,7 +2355,7 @@
   <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
